--- a/biology/Zoologie/Eriocampa/Eriocampa.xlsx
+++ b/biology/Zoologie/Eriocampa/Eriocampa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocampa est un genre d'insectes hyménoptères de la famille des Tenthredinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eriocampa a été créé en 1837 par Theodor Hartig (1805-1880)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eriocampa a été créé en 1837 par Theodor Hartig (1805-1880).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a cinq espèces dans le genre Eriocampa :
 Eriocampa dorpatica Konow, 1887 g
@@ -550,7 +566,7 @@
 Eriocampa mitsukurii Rohwer, 1910 g
 Eriocampa ovata (Linnaeus, 1761) g b (alder sawfly)
 Eriocampa umbratica (Klug, 1816) g
-Data sources: i = ITIS[2], c = Catalogue of Life[3], g = GBIF[4], b = Bugguide.net[5][2],[6],[3],[4],[5]
+Data sources: i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de sept[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de sept :
 †Eriocampa bruesi Rohwer, 1908
 †Eriocampa celata Cockerell, 1915
 †Eriocampa disjecta Cockerell, 1922
